--- a/project/SystemDev/MoSCoW.xlsx
+++ b/project/SystemDev/MoSCoW.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bubri\Desktop\project\SystemDev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bubri\Source\Repos\Turakas\project\SystemDev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,96 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
-  <si>
-    <t>Chatbox</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Music player</t>
   </si>
   <si>
-    <t>User's page</t>
-  </si>
-  <si>
-    <t>friends list</t>
-  </si>
-  <si>
-    <t>chatbox between friends</t>
-  </si>
-  <si>
-    <t>Soundcloud API usage</t>
-  </si>
-  <si>
     <t>indicator-how many people currently writing</t>
-  </si>
-  <si>
-    <t>comment/emoticon to specific post</t>
-  </si>
-  <si>
-    <t>Follow/subscribe buttons</t>
-  </si>
-  <si>
-    <t>like buttons</t>
-  </si>
-  <si>
-    <t>playlist creation page</t>
-  </si>
-  <si>
-    <t>displaying pictures</t>
-  </si>
-  <si>
-    <t>switch for time displaying</t>
-  </si>
-  <si>
-    <t>switch for notifications</t>
-  </si>
-  <si>
-    <t>Grouping up chats</t>
-  </si>
-  <si>
-    <t>subscribe to page</t>
-  </si>
-  <si>
-    <t>decision, which notifications to show</t>
-  </si>
-  <si>
-    <t>Music player separated from page</t>
-  </si>
-  <si>
-    <t>News area/page</t>
-  </si>
-  <si>
-    <t>indicator-somone has posted</t>
-  </si>
-  <si>
-    <t>cant use username twice</t>
-  </si>
-  <si>
-    <t>un != password</t>
-  </si>
-  <si>
-    <t>pass restrictions</t>
-  </si>
-  <si>
-    <t>sound equalizer</t>
-  </si>
-  <si>
-    <t>switch-show/hide displaying email</t>
-  </si>
-  <si>
-    <t>db transactions</t>
-  </si>
-  <si>
-    <t>feedback page</t>
-  </si>
-  <si>
-    <t>have to start with implementing these</t>
-  </si>
-  <si>
-    <t>We can implement them later</t>
-  </si>
-  <si>
-    <t>If we have time and motivation to implement</t>
   </si>
   <si>
     <t>Must</t>
@@ -275,15 +191,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Labs" xfId="1" builtinId="26"/>
@@ -601,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5EF5D3E-728A-472D-83A0-F2988734EC76}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,224 +534,352 @@
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="E8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="C9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="C10" s="4"/>
-      <c r="E10" s="5"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="I19" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I26" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="C8" s="1"/>
+      <c r="E8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="C9" s="1"/>
+      <c r="E9" s="2"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1"/>
+      <c r="E10" s="2"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="8"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="9"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/SystemDev/MoSCoW.xlsx
+++ b/project/SystemDev/MoSCoW.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Music player</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Public chat</t>
-  </si>
-  <si>
-    <t>Comment</t>
   </si>
   <si>
     <t>Follow/subscribe</t>
@@ -523,7 +520,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:F27"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,24 +553,22 @@
         <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -581,10 +576,10 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="3"/>
     </row>
@@ -596,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="3"/>
     </row>
@@ -605,10 +600,10 @@
         <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3"/>
     </row>
@@ -618,7 +613,7 @@
       </c>
       <c r="C8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3"/>
     </row>
